--- a/doc/进度及计划.xlsx
+++ b/doc/进度及计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse2019\workspace\travelsecretary\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA7B4E0-6B47-4395-BF82-5CD00DDBA534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF293EB-A5BF-47E6-B621-02123D03D85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,13 +424,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.08203125" customWidth="1"/>
     <col min="3" max="3" width="47.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -468,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
